--- a/biology/Botanique/Dame_de_Cœur_(rose)/Dame_de_Cœur_(rose).xlsx
+++ b/biology/Botanique/Dame_de_Cœur_(rose)/Dame_de_Cœur_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dame_de_C%C5%93ur_(rose)</t>
+          <t>Dame_de_Cœur_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Dame de Cœur' est un cultivar de rosier hybride de thé obtenu en 1958 par le rosiériste belge Louis Lens. Il est issu de 'Madame Antoine Meilland' x 'Independence'[1]. C'est une variété saine et très facile à cultiver dont le succès international ne se dément pas depuis sa création.
+'Dame de Cœur' est un cultivar de rosier hybride de thé obtenu en 1958 par le rosiériste belge Louis Lens. Il est issu de 'Madame Antoine Meilland' x 'Independence'. C'est une variété saine et très facile à cultiver dont le succès international ne se dément pas depuis sa création.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dame_de_C%C5%93ur_(rose)</t>
+          <t>Dame_de_Cœur_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un buisson érigé vigoureux atteignant 100 cm de hauteur dont les fleurs doubles sont d'un remarquable rouge cerise[2] vif et uni. Elles sont en forme de coupe et mesurent 12 cm de diamètre, voire 15 à 16 cm[3], leur forme est parfaite avec un cœur turbiné. Ce cultivar est très florifère, de fin mai jusqu'aux premières gelées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un buisson érigé vigoureux atteignant 100 cm de hauteur dont les fleurs doubles sont d'un remarquable rouge cerise vif et uni. Elles sont en forme de coupe et mesurent 12 cm de diamètre, voire 15 à 16 cm, leur forme est parfaite avec un cœur turbiné. Ce cultivar est très florifère, de fin mai jusqu'aux premières gelées.
 Cette variété s'utilise en massif ou en isolé. Il existe une version grimpante, 'Dame de Cœur Climbing', créée par Mungia en 1984 et qui peut atteindre 300 cm. Ce rosier a besoin d'un sol riche, frais et bien drainé.
 			'Dame de Cœur climb.'
 			Rose 'Dame de Cœur' à la roseraie de Courtrai.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dame_de_C%C5%93ur_(rose)</t>
+          <t>Dame_de_Cœur_(rose)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété a donné naissance à 'Alec's Red' (Cocker, 1970), par croisement avec 'Nuage Parfumé' (Tantau, 1956).
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dame_de_C%C5%93ur_(rose)</t>
+          <t>Dame_de_Cœur_(rose)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Certificat de Mérite de la Royal National Rose Society, 1958</t>
         </is>
